--- a/Námskeið verkfræðideildar vorönn 2022 með undanförum.xlsx
+++ b/Námskeið verkfræðideildar vorönn 2022 með undanförum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aslaugsol/Documents/GitHub/LIKX2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48549C83-5CD4-9942-8CBA-80E362A21F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184C51E3-7939-CC40-907E-3D412472E473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33580" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Námskeið" sheetId="1" r:id="rId1"/>
@@ -1765,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Námskeið verkfræðideildar vorönn 2022 með undanförum.xlsx
+++ b/Námskeið verkfræðideildar vorönn 2022 með undanförum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184C51E3-7939-CC40-907E-3D412472E473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860869EE-F520-3041-9316-BCE8045E3BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Námskeið" sheetId="1" r:id="rId1"/>
@@ -1765,7 +1765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:O59"/>
     </sheetView>
   </sheetViews>
@@ -4568,8 +4568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB368C67-0469-40F7-B089-2478E9FFC0A5}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M49"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
